--- a/data/case1/9/V2_6.xlsx
+++ b/data/case1/9/V2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999856919852</v>
+        <v>0.99999999763854153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99389263325668309</v>
+        <v>0.99460662222333074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97290069863085582</v>
+        <v>0.97501750906507123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96328995241568727</v>
+        <v>0.96643157646890354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95059928718637843</v>
+        <v>0.95479562792780048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.91951369860721655</v>
+        <v>0.92634700784423318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91487125289478488</v>
+        <v>0.92294232539046439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.90840998788853733</v>
+        <v>0.91817741599738523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.89665301258865515</v>
+        <v>0.90642316030766135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.88581648749784037</v>
+        <v>0.89558854516749165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.88421940560477075</v>
+        <v>0.89399168031110698</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.88143806977618833</v>
+        <v>0.89121068628612665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.87014585396407962</v>
+        <v>0.87991962570835325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.86597727796703006</v>
+        <v>0.87575132008896972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8633851537728201</v>
+        <v>0.87315933551709546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.86087822315694362</v>
+        <v>0.87065250065518462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.85716982069247039</v>
+        <v>0.86694420147967888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.85606085781692065</v>
+        <v>0.8658352490080542</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99022915639755682</v>
+        <v>0.99173460486095921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96007040827507462</v>
+        <v>0.96852245363004386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95160253592095956</v>
+        <v>0.9621852658056228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95033800457970963</v>
+        <v>0.9609207412306342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9658649789441115</v>
+        <v>0.96798195819367594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95284317900996296</v>
+        <v>0.95496032640693684</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9463860174272628</v>
+        <v>0.94850319492105273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.91585534155902903</v>
+        <v>0.92268950151706752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91100522639116432</v>
+        <v>0.91784045076282172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.88952065285464677</v>
+        <v>0.89635937862712689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.87424472357062022</v>
+        <v>0.88108478405062307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.86767328158550194</v>
+        <v>0.87451363733169574</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.860018454808123</v>
+        <v>0.86685908426637048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.85833901679039148</v>
+        <v>0.86517967301558008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.85781897849829769</v>
+        <v>0.86465964185045796</v>
       </c>
     </row>
   </sheetData>
